--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Vcam1-Itgb7.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Vcam1-Itgb7.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.42790221153781</v>
+        <v>11.40047666666667</v>
       </c>
       <c r="H2">
-        <v>5.42790221153781</v>
+        <v>34.20143</v>
       </c>
       <c r="I2">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522012</v>
       </c>
       <c r="J2">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522011</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.679685318926184</v>
+        <v>0.8672823333333334</v>
       </c>
       <c r="N2">
-        <v>0.679685318926184</v>
+        <v>2.601847</v>
       </c>
       <c r="O2">
-        <v>0.02713179863505067</v>
+        <v>0.02330657204704962</v>
       </c>
       <c r="P2">
-        <v>0.02713179863505067</v>
+        <v>0.02330657204704962</v>
       </c>
       <c r="Q2">
-        <v>3.689265445749216</v>
+        <v>9.887432004578891</v>
       </c>
       <c r="R2">
-        <v>3.689265445749216</v>
+        <v>88.98688804121001</v>
       </c>
       <c r="S2">
-        <v>0.001165136030029911</v>
+        <v>0.001718471912214394</v>
       </c>
       <c r="T2">
-        <v>0.001165136030029911</v>
+        <v>0.001718471912214393</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.42790221153781</v>
+        <v>11.40047666666667</v>
       </c>
       <c r="H3">
-        <v>5.42790221153781</v>
+        <v>34.20143</v>
       </c>
       <c r="I3">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522012</v>
       </c>
       <c r="J3">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522011</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.18365333282934</v>
+        <v>1.185693666666667</v>
       </c>
       <c r="N3">
-        <v>1.18365333282934</v>
+        <v>3.557081</v>
       </c>
       <c r="O3">
-        <v>0.04724928284572823</v>
+        <v>0.03186327428311169</v>
       </c>
       <c r="P3">
-        <v>0.04724928284572823</v>
+        <v>0.03186327428311169</v>
       </c>
       <c r="Q3">
-        <v>6.424754542958474</v>
+        <v>13.51747298064778</v>
       </c>
       <c r="R3">
-        <v>6.424754542958474</v>
+        <v>121.65725682583</v>
       </c>
       <c r="S3">
-        <v>0.002029052425795041</v>
+        <v>0.002349386335157866</v>
       </c>
       <c r="T3">
-        <v>0.002029052425795041</v>
+        <v>0.002349386335157865</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.42790221153781</v>
+        <v>11.40047666666667</v>
       </c>
       <c r="H4">
-        <v>5.42790221153781</v>
+        <v>34.20143</v>
       </c>
       <c r="I4">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522012</v>
       </c>
       <c r="J4">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522011</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.61944302727373</v>
+        <v>16.21723233333333</v>
       </c>
       <c r="N4">
-        <v>6.61944302727373</v>
+        <v>48.651697</v>
       </c>
       <c r="O4">
-        <v>0.264236096162739</v>
+        <v>0.4358074403843607</v>
       </c>
       <c r="P4">
-        <v>0.264236096162739</v>
+        <v>0.4358074403843607</v>
       </c>
       <c r="Q4">
-        <v>35.92968944688761</v>
+        <v>184.8841788140789</v>
       </c>
       <c r="R4">
-        <v>35.92968944688761</v>
+        <v>1663.95760932671</v>
       </c>
       <c r="S4">
-        <v>0.01134723872216592</v>
+        <v>0.03213354773592193</v>
       </c>
       <c r="T4">
-        <v>0.01134723872216592</v>
+        <v>0.03213354773592193</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.42790221153781</v>
+        <v>11.40047666666667</v>
       </c>
       <c r="H5">
-        <v>5.42790221153781</v>
+        <v>34.20143</v>
       </c>
       <c r="I5">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522012</v>
       </c>
       <c r="J5">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522011</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.99023059359207</v>
+        <v>11.00545633333333</v>
       </c>
       <c r="N5">
-        <v>8.99023059359207</v>
+        <v>33.016369</v>
       </c>
       <c r="O5">
-        <v>0.3588736130616685</v>
+        <v>0.2957508196409995</v>
       </c>
       <c r="P5">
-        <v>0.3588736130616685</v>
+        <v>0.2957508196409995</v>
       </c>
       <c r="Q5">
-        <v>48.79809252119328</v>
+        <v>125.4674481341856</v>
       </c>
       <c r="R5">
-        <v>48.79809252119328</v>
+        <v>1129.20703320767</v>
       </c>
       <c r="S5">
-        <v>0.01541131063330928</v>
+        <v>0.02180670222722782</v>
       </c>
       <c r="T5">
-        <v>0.01541131063330928</v>
+        <v>0.02180670222722782</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.42790221153781</v>
+        <v>11.40047666666667</v>
       </c>
       <c r="H6">
-        <v>5.42790221153781</v>
+        <v>34.20143</v>
       </c>
       <c r="I6">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522012</v>
       </c>
       <c r="J6">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522011</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.09530791525976</v>
+        <v>7.413711999999999</v>
       </c>
       <c r="N6">
-        <v>7.09530791525976</v>
+        <v>22.241136</v>
       </c>
       <c r="O6">
-        <v>0.2832317548283194</v>
+        <v>0.1992294852818897</v>
       </c>
       <c r="P6">
-        <v>0.2832317548283194</v>
+        <v>0.1992294852818897</v>
       </c>
       <c r="Q6">
-        <v>38.51263752478017</v>
+        <v>84.51985066938667</v>
       </c>
       <c r="R6">
-        <v>38.51263752478017</v>
+        <v>760.67865602448</v>
       </c>
       <c r="S6">
-        <v>0.01216297993501811</v>
+        <v>0.01468985974645719</v>
       </c>
       <c r="T6">
-        <v>0.01216297993501811</v>
+        <v>0.01468985974645718</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.42790221153781</v>
+        <v>11.40047666666667</v>
       </c>
       <c r="H7">
-        <v>5.42790221153781</v>
+        <v>34.20143</v>
       </c>
       <c r="I7">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522012</v>
       </c>
       <c r="J7">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522011</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.482924223468814</v>
+        <v>0.522545</v>
       </c>
       <c r="N7">
-        <v>0.482924223468814</v>
+        <v>1.567635</v>
       </c>
       <c r="O7">
-        <v>0.01927745446649416</v>
+        <v>0.01404240836258882</v>
       </c>
       <c r="P7">
-        <v>0.01927745446649416</v>
+        <v>0.01404240836258882</v>
       </c>
       <c r="Q7">
-        <v>2.621265460571555</v>
+        <v>5.957262079783335</v>
       </c>
       <c r="R7">
-        <v>2.621265460571555</v>
+        <v>53.61535871805</v>
       </c>
       <c r="S7">
-        <v>0.0008278425278137268</v>
+        <v>0.001035393978240923</v>
       </c>
       <c r="T7">
-        <v>0.0008278425278137268</v>
+        <v>0.001035393978240923</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>54.9799940683674</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H8">
-        <v>54.9799940683674</v>
+        <v>165.227989</v>
       </c>
       <c r="I8">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="J8">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.679685318926184</v>
+        <v>0.8672823333333334</v>
       </c>
       <c r="N8">
-        <v>0.679685318926184</v>
+        <v>2.601847</v>
       </c>
       <c r="O8">
-        <v>0.02713179863505067</v>
+        <v>0.02330657204704962</v>
       </c>
       <c r="P8">
-        <v>0.02713179863505067</v>
+        <v>0.02330657204704962</v>
       </c>
       <c r="Q8">
-        <v>37.369094802918</v>
+        <v>47.76643861063145</v>
       </c>
       <c r="R8">
-        <v>37.369094802918</v>
+        <v>429.8979474956831</v>
       </c>
       <c r="S8">
-        <v>0.0118018286850707</v>
+        <v>0.008301982057714218</v>
       </c>
       <c r="T8">
-        <v>0.0118018286850707</v>
+        <v>0.008301982057714218</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>54.9799940683674</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H9">
-        <v>54.9799940683674</v>
+        <v>165.227989</v>
       </c>
       <c r="I9">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="J9">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.18365333282934</v>
+        <v>1.185693666666667</v>
       </c>
       <c r="N9">
-        <v>1.18365333282934</v>
+        <v>3.557081</v>
       </c>
       <c r="O9">
-        <v>0.04724928284572823</v>
+        <v>0.03186327428311169</v>
       </c>
       <c r="P9">
-        <v>0.04724928284572823</v>
+        <v>0.03186327428311169</v>
       </c>
       <c r="Q9">
-        <v>65.0772532179604</v>
+        <v>65.3032600377899</v>
       </c>
       <c r="R9">
-        <v>65.0772532179604</v>
+        <v>587.7293403401089</v>
       </c>
       <c r="S9">
-        <v>0.02055256082128493</v>
+        <v>0.0113499458806902</v>
       </c>
       <c r="T9">
-        <v>0.02055256082128493</v>
+        <v>0.0113499458806902</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>54.9799940683674</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H10">
-        <v>54.9799940683674</v>
+        <v>165.227989</v>
       </c>
       <c r="I10">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="J10">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.61944302727373</v>
+        <v>16.21723233333333</v>
       </c>
       <c r="N10">
-        <v>6.61944302727373</v>
+        <v>48.651697</v>
       </c>
       <c r="O10">
-        <v>0.264236096162739</v>
+        <v>0.4358074403843607</v>
       </c>
       <c r="P10">
-        <v>0.264236096162739</v>
+        <v>0.4358074403843607</v>
       </c>
       <c r="Q10">
-        <v>363.9369383754056</v>
+        <v>893.1802285274814</v>
       </c>
       <c r="R10">
-        <v>363.9369383754056</v>
+        <v>8038.622056747333</v>
       </c>
       <c r="S10">
-        <v>0.1149377960993661</v>
+        <v>0.1552379965352877</v>
       </c>
       <c r="T10">
-        <v>0.1149377960993661</v>
+        <v>0.1552379965352877</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>54.9799940683674</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H11">
-        <v>54.9799940683674</v>
+        <v>165.227989</v>
       </c>
       <c r="I11">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="J11">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.99023059359207</v>
+        <v>11.00545633333333</v>
       </c>
       <c r="N11">
-        <v>8.99023059359207</v>
+        <v>33.016369</v>
       </c>
       <c r="O11">
-        <v>0.3588736130616685</v>
+        <v>0.2957508196409995</v>
       </c>
       <c r="P11">
-        <v>0.3588736130616685</v>
+        <v>0.2957508196409995</v>
       </c>
       <c r="Q11">
-        <v>494.2828247089471</v>
+        <v>606.1364726613268</v>
       </c>
       <c r="R11">
-        <v>494.2828247089471</v>
+        <v>5455.228253951941</v>
       </c>
       <c r="S11">
-        <v>0.1561033589374586</v>
+        <v>0.105348739971594</v>
       </c>
       <c r="T11">
-        <v>0.1561033589374586</v>
+        <v>0.105348739971594</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>54.9799940683674</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H12">
-        <v>54.9799940683674</v>
+        <v>165.227989</v>
       </c>
       <c r="I12">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="J12">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.09530791525976</v>
+        <v>7.413711999999999</v>
       </c>
       <c r="N12">
-        <v>7.09530791525976</v>
+        <v>22.241136</v>
       </c>
       <c r="O12">
-        <v>0.2832317548283194</v>
+        <v>0.1992294852818897</v>
       </c>
       <c r="P12">
-        <v>0.2832317548283194</v>
+        <v>0.1992294852818897</v>
       </c>
       <c r="Q12">
-        <v>390.0999870942218</v>
+        <v>408.3175749283893</v>
       </c>
       <c r="R12">
-        <v>390.0999870942218</v>
+        <v>3674.858174355504</v>
       </c>
       <c r="S12">
-        <v>0.1232005549509537</v>
+        <v>0.0709670906917977</v>
       </c>
       <c r="T12">
-        <v>0.1232005549509537</v>
+        <v>0.07096709069179769</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>54.9799940683674</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H13">
-        <v>54.9799940683674</v>
+        <v>165.227989</v>
       </c>
       <c r="I13">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="J13">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.482924223468814</v>
+        <v>0.522545</v>
       </c>
       <c r="N13">
-        <v>0.482924223468814</v>
+        <v>1.567635</v>
       </c>
       <c r="O13">
-        <v>0.01927745446649416</v>
+        <v>0.01404240836258882</v>
       </c>
       <c r="P13">
-        <v>0.01927745446649416</v>
+        <v>0.01404240836258882</v>
       </c>
       <c r="Q13">
-        <v>26.55117094178632</v>
+        <v>28.77968650400167</v>
       </c>
       <c r="R13">
-        <v>26.55117094178632</v>
+        <v>259.017178536015</v>
       </c>
       <c r="S13">
-        <v>0.008385334793245275</v>
+        <v>0.005002014969767564</v>
       </c>
       <c r="T13">
-        <v>0.008385334793245275</v>
+        <v>0.005002014969767564</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.00213905512072</v>
+        <v>13.47993833333333</v>
       </c>
       <c r="H14">
-        <v>7.00213905512072</v>
+        <v>40.439815</v>
       </c>
       <c r="I14">
-        <v>0.05539834154017269</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="J14">
-        <v>0.05539834154017269</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.679685318926184</v>
+        <v>0.8672823333333334</v>
       </c>
       <c r="N14">
-        <v>0.679685318926184</v>
+        <v>2.601847</v>
       </c>
       <c r="O14">
-        <v>0.02713179863505067</v>
+        <v>0.02330657204704962</v>
       </c>
       <c r="P14">
-        <v>0.02713179863505067</v>
+        <v>0.02330657204704962</v>
       </c>
       <c r="Q14">
-        <v>4.759251116845215</v>
+        <v>11.69091237092278</v>
       </c>
       <c r="R14">
-        <v>4.759251116845215</v>
+        <v>105.218211338305</v>
       </c>
       <c r="S14">
-        <v>0.001503056647383728</v>
+        <v>0.002031923408250659</v>
       </c>
       <c r="T14">
-        <v>0.001503056647383728</v>
+        <v>0.002031923408250659</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.00213905512072</v>
+        <v>13.47993833333333</v>
       </c>
       <c r="H15">
-        <v>7.00213905512072</v>
+        <v>40.439815</v>
       </c>
       <c r="I15">
-        <v>0.05539834154017269</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="J15">
-        <v>0.05539834154017269</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.18365333282934</v>
+        <v>1.185693666666667</v>
       </c>
       <c r="N15">
-        <v>1.18365333282934</v>
+        <v>3.557081</v>
       </c>
       <c r="O15">
-        <v>0.04724928284572823</v>
+        <v>0.03186327428311169</v>
       </c>
       <c r="P15">
-        <v>0.04724928284572823</v>
+        <v>0.03186327428311169</v>
       </c>
       <c r="Q15">
-        <v>8.288105229528126</v>
+        <v>15.98307750889056</v>
       </c>
       <c r="R15">
-        <v>8.288105229528126</v>
+        <v>143.847697580015</v>
       </c>
       <c r="S15">
-        <v>0.002617531908615875</v>
+        <v>0.002777917436706947</v>
       </c>
       <c r="T15">
-        <v>0.002617531908615875</v>
+        <v>0.002777917436706947</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.00213905512072</v>
+        <v>13.47993833333333</v>
       </c>
       <c r="H16">
-        <v>7.00213905512072</v>
+        <v>40.439815</v>
       </c>
       <c r="I16">
-        <v>0.05539834154017269</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="J16">
-        <v>0.05539834154017269</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.61944302727373</v>
+        <v>16.21723233333333</v>
       </c>
       <c r="N16">
-        <v>6.61944302727373</v>
+        <v>48.651697</v>
       </c>
       <c r="O16">
-        <v>0.264236096162739</v>
+        <v>0.4358074403843607</v>
       </c>
       <c r="P16">
-        <v>0.264236096162739</v>
+        <v>0.4358074403843607</v>
       </c>
       <c r="Q16">
-        <v>46.35026054441992</v>
+        <v>218.6072917906728</v>
       </c>
       <c r="R16">
-        <v>46.35026054441992</v>
+        <v>1967.465626116055</v>
       </c>
       <c r="S16">
-        <v>0.01463824150246533</v>
+        <v>0.03799474834047441</v>
       </c>
       <c r="T16">
-        <v>0.01463824150246533</v>
+        <v>0.03799474834047441</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.00213905512072</v>
+        <v>13.47993833333333</v>
       </c>
       <c r="H17">
-        <v>7.00213905512072</v>
+        <v>40.439815</v>
       </c>
       <c r="I17">
-        <v>0.05539834154017269</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="J17">
-        <v>0.05539834154017269</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.99023059359207</v>
+        <v>11.00545633333333</v>
       </c>
       <c r="N17">
-        <v>8.99023059359207</v>
+        <v>33.016369</v>
       </c>
       <c r="O17">
-        <v>0.3588736130616685</v>
+        <v>0.2957508196409995</v>
       </c>
       <c r="P17">
-        <v>0.3588736130616685</v>
+        <v>0.2957508196409995</v>
       </c>
       <c r="Q17">
-        <v>62.95084475393217</v>
+        <v>148.3528727035261</v>
       </c>
       <c r="R17">
-        <v>62.95084475393217</v>
+        <v>1335.175854331735</v>
       </c>
       <c r="S17">
-        <v>0.01988100298614609</v>
+        <v>0.02578427287482369</v>
       </c>
       <c r="T17">
-        <v>0.01988100298614609</v>
+        <v>0.02578427287482369</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.00213905512072</v>
+        <v>13.47993833333333</v>
       </c>
       <c r="H18">
-        <v>7.00213905512072</v>
+        <v>40.439815</v>
       </c>
       <c r="I18">
-        <v>0.05539834154017269</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="J18">
-        <v>0.05539834154017269</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.09530791525976</v>
+        <v>7.413711999999999</v>
       </c>
       <c r="N18">
-        <v>7.09530791525976</v>
+        <v>22.241136</v>
       </c>
       <c r="O18">
-        <v>0.2832317548283194</v>
+        <v>0.1992294852818897</v>
       </c>
       <c r="P18">
-        <v>0.2832317548283194</v>
+        <v>0.1992294852818897</v>
       </c>
       <c r="Q18">
-        <v>49.68233266154754</v>
+        <v>99.93638058109333</v>
       </c>
       <c r="R18">
-        <v>49.68233266154754</v>
+        <v>899.42742522984</v>
       </c>
       <c r="S18">
-        <v>0.01569056948900169</v>
+        <v>0.01736930913481324</v>
       </c>
       <c r="T18">
-        <v>0.01569056948900169</v>
+        <v>0.01736930913481324</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.00213905512072</v>
+        <v>13.47993833333333</v>
       </c>
       <c r="H19">
-        <v>7.00213905512072</v>
+        <v>40.439815</v>
       </c>
       <c r="I19">
-        <v>0.05539834154017269</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="J19">
-        <v>0.05539834154017269</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.482924223468814</v>
+        <v>0.522545</v>
       </c>
       <c r="N19">
-        <v>0.482924223468814</v>
+        <v>1.567635</v>
       </c>
       <c r="O19">
-        <v>0.01927745446649416</v>
+        <v>0.01404240836258882</v>
       </c>
       <c r="P19">
-        <v>0.01927745446649416</v>
+        <v>0.01404240836258882</v>
       </c>
       <c r="Q19">
-        <v>3.381502565814829</v>
+        <v>7.043874376391668</v>
       </c>
       <c r="R19">
-        <v>3.381502565814829</v>
+        <v>63.39486938752501</v>
       </c>
       <c r="S19">
-        <v>0.001067939006559971</v>
+        <v>0.001224251176988125</v>
       </c>
       <c r="T19">
-        <v>0.001067939006559971</v>
+        <v>0.001224251176988125</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.9830157798922</v>
+        <v>14.53186966666667</v>
       </c>
       <c r="H20">
-        <v>10.9830157798922</v>
+        <v>43.595609</v>
       </c>
       <c r="I20">
-        <v>0.08689356988285124</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="J20">
-        <v>0.08689356988285124</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.679685318926184</v>
+        <v>0.8672823333333334</v>
       </c>
       <c r="N20">
-        <v>0.679685318926184</v>
+        <v>2.601847</v>
       </c>
       <c r="O20">
-        <v>0.02713179863505067</v>
+        <v>0.02330657204704962</v>
       </c>
       <c r="P20">
-        <v>0.02713179863505067</v>
+        <v>0.02330657204704962</v>
       </c>
       <c r="Q20">
-        <v>7.464994583127342</v>
+        <v>12.60323383220256</v>
       </c>
       <c r="R20">
-        <v>7.464994583127342</v>
+        <v>113.429104489823</v>
       </c>
       <c r="S20">
-        <v>0.002357578840742224</v>
+        <v>0.002190488221176162</v>
       </c>
       <c r="T20">
-        <v>0.002357578840742224</v>
+        <v>0.002190488221176162</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.9830157798922</v>
+        <v>14.53186966666667</v>
       </c>
       <c r="H21">
-        <v>10.9830157798922</v>
+        <v>43.595609</v>
       </c>
       <c r="I21">
-        <v>0.08689356988285124</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="J21">
-        <v>0.08689356988285124</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.18365333282934</v>
+        <v>1.185693666666667</v>
       </c>
       <c r="N21">
-        <v>1.18365333282934</v>
+        <v>3.557081</v>
       </c>
       <c r="O21">
-        <v>0.04724928284572823</v>
+        <v>0.03186327428311169</v>
       </c>
       <c r="P21">
-        <v>0.04724928284572823</v>
+        <v>0.03186327428311169</v>
       </c>
       <c r="Q21">
-        <v>13.00008323238664</v>
+        <v>17.23034582859211</v>
       </c>
       <c r="R21">
-        <v>13.00008323238664</v>
+        <v>155.073112457329</v>
       </c>
       <c r="S21">
-        <v>0.00410565886086989</v>
+        <v>0.002994697240948266</v>
       </c>
       <c r="T21">
-        <v>0.00410565886086989</v>
+        <v>0.002994697240948266</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.9830157798922</v>
+        <v>14.53186966666667</v>
       </c>
       <c r="H22">
-        <v>10.9830157798922</v>
+        <v>43.595609</v>
       </c>
       <c r="I22">
-        <v>0.08689356988285124</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="J22">
-        <v>0.08689356988285124</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.61944302727373</v>
+        <v>16.21723233333333</v>
       </c>
       <c r="N22">
-        <v>6.61944302727373</v>
+        <v>48.651697</v>
       </c>
       <c r="O22">
-        <v>0.264236096162739</v>
+        <v>0.4358074403843607</v>
       </c>
       <c r="P22">
-        <v>0.264236096162739</v>
+        <v>0.4358074403843607</v>
       </c>
       <c r="Q22">
-        <v>72.70144722264477</v>
+        <v>235.6667066220525</v>
       </c>
       <c r="R22">
-        <v>72.70144722264477</v>
+        <v>2121.000359598473</v>
       </c>
       <c r="S22">
-        <v>0.02296041768748876</v>
+        <v>0.04095973714777679</v>
       </c>
       <c r="T22">
-        <v>0.02296041768748876</v>
+        <v>0.04095973714777679</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.9830157798922</v>
+        <v>14.53186966666667</v>
       </c>
       <c r="H23">
-        <v>10.9830157798922</v>
+        <v>43.595609</v>
       </c>
       <c r="I23">
-        <v>0.08689356988285124</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="J23">
-        <v>0.08689356988285124</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.99023059359207</v>
+        <v>11.00545633333333</v>
       </c>
       <c r="N23">
-        <v>8.99023059359207</v>
+        <v>33.016369</v>
       </c>
       <c r="O23">
-        <v>0.3588736130616685</v>
+        <v>0.2957508196409995</v>
       </c>
       <c r="P23">
-        <v>0.3588736130616685</v>
+        <v>0.2957508196409995</v>
       </c>
       <c r="Q23">
-        <v>98.73984447429133</v>
+        <v>159.9298570581912</v>
       </c>
       <c r="R23">
-        <v>98.73984447429133</v>
+        <v>1439.368713523721</v>
       </c>
       <c r="S23">
-        <v>0.03118380937568541</v>
+        <v>0.02779639517639038</v>
       </c>
       <c r="T23">
-        <v>0.03118380937568541</v>
+        <v>0.02779639517639038</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.9830157798922</v>
+        <v>14.53186966666667</v>
       </c>
       <c r="H24">
-        <v>10.9830157798922</v>
+        <v>43.595609</v>
       </c>
       <c r="I24">
-        <v>0.08689356988285124</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="J24">
-        <v>0.08689356988285124</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.09530791525976</v>
+        <v>7.413711999999999</v>
       </c>
       <c r="N24">
-        <v>7.09530791525976</v>
+        <v>22.241136</v>
       </c>
       <c r="O24">
-        <v>0.2832317548283194</v>
+        <v>0.1992294852818897</v>
       </c>
       <c r="P24">
-        <v>0.2832317548283194</v>
+        <v>0.1992294852818897</v>
       </c>
       <c r="Q24">
-        <v>77.92787879649197</v>
+        <v>107.7350965302027</v>
       </c>
       <c r="R24">
-        <v>77.92787879649197</v>
+        <v>969.615868771824</v>
       </c>
       <c r="S24">
-        <v>0.02461101828121716</v>
+        <v>0.01872475454305234</v>
       </c>
       <c r="T24">
-        <v>0.02461101828121716</v>
+        <v>0.01872475454305234</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.9830157798922</v>
+        <v>14.53186966666667</v>
       </c>
       <c r="H25">
-        <v>10.9830157798922</v>
+        <v>43.595609</v>
       </c>
       <c r="I25">
-        <v>0.08689356988285124</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="J25">
-        <v>0.08689356988285124</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.482924223468814</v>
+        <v>0.522545</v>
       </c>
       <c r="N25">
-        <v>0.482924223468814</v>
+        <v>1.567635</v>
       </c>
       <c r="O25">
-        <v>0.01927745446649416</v>
+        <v>0.01404240836258882</v>
       </c>
       <c r="P25">
-        <v>0.01927745446649416</v>
+        <v>0.01404240836258882</v>
       </c>
       <c r="Q25">
-        <v>5.303964366850171</v>
+        <v>7.593555834968334</v>
       </c>
       <c r="R25">
-        <v>5.303964366850171</v>
+        <v>68.34200251471501</v>
       </c>
       <c r="S25">
-        <v>0.001675086836847793</v>
+        <v>0.001319787828647685</v>
       </c>
       <c r="T25">
-        <v>0.001675086836847793</v>
+        <v>0.001319787828647685</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.46935703894511</v>
+        <v>2.664875</v>
       </c>
       <c r="H26">
-        <v>2.46935703894511</v>
+        <v>7.994625</v>
       </c>
       <c r="I26">
-        <v>0.01953664209625615</v>
+        <v>0.0172352611765461</v>
       </c>
       <c r="J26">
-        <v>0.01953664209625615</v>
+        <v>0.0172352611765461</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.679685318926184</v>
+        <v>0.8672823333333334</v>
       </c>
       <c r="N26">
-        <v>0.679685318926184</v>
+        <v>2.601847</v>
       </c>
       <c r="O26">
-        <v>0.02713179863505067</v>
+        <v>0.02330657204704962</v>
       </c>
       <c r="P26">
-        <v>0.02713179863505067</v>
+        <v>0.02330657204704962</v>
       </c>
       <c r="Q26">
-        <v>1.678385726558024</v>
+        <v>2.311199008041667</v>
       </c>
       <c r="R26">
-        <v>1.678385726558024</v>
+        <v>20.800791072375</v>
       </c>
       <c r="S26">
-        <v>0.0005300642393606761</v>
+        <v>0.0004016948563608889</v>
       </c>
       <c r="T26">
-        <v>0.0005300642393606761</v>
+        <v>0.0004016948563608889</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.46935703894511</v>
+        <v>2.664875</v>
       </c>
       <c r="H27">
-        <v>2.46935703894511</v>
+        <v>7.994625</v>
       </c>
       <c r="I27">
-        <v>0.01953664209625615</v>
+        <v>0.0172352611765461</v>
       </c>
       <c r="J27">
-        <v>0.01953664209625615</v>
+        <v>0.0172352611765461</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1.18365333282934</v>
+        <v>1.185693666666667</v>
       </c>
       <c r="N27">
-        <v>1.18365333282934</v>
+        <v>3.557081</v>
       </c>
       <c r="O27">
-        <v>0.04724928284572823</v>
+        <v>0.03186327428311169</v>
       </c>
       <c r="P27">
-        <v>0.04724928284572823</v>
+        <v>0.03186327428311169</v>
       </c>
       <c r="Q27">
-        <v>2.922862689092969</v>
+        <v>3.159725409958333</v>
       </c>
       <c r="R27">
-        <v>2.922862689092969</v>
+        <v>28.437528689625</v>
       </c>
       <c r="S27">
-        <v>0.0009230923282617676</v>
+        <v>0.0005491718542093546</v>
       </c>
       <c r="T27">
-        <v>0.0009230923282617676</v>
+        <v>0.0005491718542093546</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.46935703894511</v>
+        <v>2.664875</v>
       </c>
       <c r="H28">
-        <v>2.46935703894511</v>
+        <v>7.994625</v>
       </c>
       <c r="I28">
-        <v>0.01953664209625615</v>
+        <v>0.0172352611765461</v>
       </c>
       <c r="J28">
-        <v>0.01953664209625615</v>
+        <v>0.0172352611765461</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>6.61944302727373</v>
+        <v>16.21723233333333</v>
       </c>
       <c r="N28">
-        <v>6.61944302727373</v>
+        <v>48.651697</v>
       </c>
       <c r="O28">
-        <v>0.264236096162739</v>
+        <v>0.4358074403843607</v>
       </c>
       <c r="P28">
-        <v>0.264236096162739</v>
+        <v>0.4358074403843607</v>
       </c>
       <c r="Q28">
-        <v>16.34576823329451</v>
+        <v>43.21689701429166</v>
       </c>
       <c r="R28">
-        <v>16.34576823329451</v>
+        <v>388.952073128625</v>
       </c>
       <c r="S28">
-        <v>0.005162286039643355</v>
+        <v>0.007511255057706501</v>
       </c>
       <c r="T28">
-        <v>0.005162286039643355</v>
+        <v>0.007511255057706501</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.46935703894511</v>
+        <v>2.664875</v>
       </c>
       <c r="H29">
-        <v>2.46935703894511</v>
+        <v>7.994625</v>
       </c>
       <c r="I29">
-        <v>0.01953664209625615</v>
+        <v>0.0172352611765461</v>
       </c>
       <c r="J29">
-        <v>0.01953664209625615</v>
+        <v>0.0172352611765461</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.99023059359207</v>
+        <v>11.00545633333333</v>
       </c>
       <c r="N29">
-        <v>8.99023059359207</v>
+        <v>33.016369</v>
       </c>
       <c r="O29">
-        <v>0.3588736130616685</v>
+        <v>0.2957508196409995</v>
       </c>
       <c r="P29">
-        <v>0.3588736130616685</v>
+        <v>0.2957508196409995</v>
       </c>
       <c r="Q29">
-        <v>22.20008919802625</v>
+        <v>29.32816544629166</v>
       </c>
       <c r="R29">
-        <v>22.20008919802625</v>
+        <v>263.953489016625</v>
       </c>
       <c r="S29">
-        <v>0.007011185336176134</v>
+        <v>0.005097342619690206</v>
       </c>
       <c r="T29">
-        <v>0.007011185336176134</v>
+        <v>0.005097342619690206</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.46935703894511</v>
+        <v>2.664875</v>
       </c>
       <c r="H30">
-        <v>2.46935703894511</v>
+        <v>7.994625</v>
       </c>
       <c r="I30">
-        <v>0.01953664209625615</v>
+        <v>0.0172352611765461</v>
       </c>
       <c r="J30">
-        <v>0.01953664209625615</v>
+        <v>0.0172352611765461</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>7.09530791525976</v>
+        <v>7.413711999999999</v>
       </c>
       <c r="N30">
-        <v>7.09530791525976</v>
+        <v>22.241136</v>
       </c>
       <c r="O30">
-        <v>0.2832317548283194</v>
+        <v>0.1992294852818897</v>
       </c>
       <c r="P30">
-        <v>0.2832317548283194</v>
+        <v>0.1992294852818897</v>
       </c>
       <c r="Q30">
-        <v>17.52084854402964</v>
+        <v>19.756615766</v>
       </c>
       <c r="R30">
-        <v>17.52084854402964</v>
+        <v>177.809541894</v>
       </c>
       <c r="S30">
-        <v>0.005533397424375444</v>
+        <v>0.003433772212902217</v>
       </c>
       <c r="T30">
-        <v>0.005533397424375444</v>
+        <v>0.003433772212902216</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.46935703894511</v>
+        <v>2.664875</v>
       </c>
       <c r="H31">
-        <v>2.46935703894511</v>
+        <v>7.994625</v>
       </c>
       <c r="I31">
-        <v>0.01953664209625615</v>
+        <v>0.0172352611765461</v>
       </c>
       <c r="J31">
-        <v>0.01953664209625615</v>
+        <v>0.0172352611765461</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.482924223468814</v>
+        <v>0.522545</v>
       </c>
       <c r="N31">
-        <v>0.482924223468814</v>
+        <v>1.567635</v>
       </c>
       <c r="O31">
-        <v>0.01927745446649416</v>
+        <v>0.01404240836258882</v>
       </c>
       <c r="P31">
-        <v>0.01927745446649416</v>
+        <v>0.01404240836258882</v>
       </c>
       <c r="Q31">
-        <v>1.192512330499817</v>
+        <v>1.392517106875</v>
       </c>
       <c r="R31">
-        <v>1.192512330499817</v>
+        <v>12.532653961875</v>
       </c>
       <c r="S31">
-        <v>0.0003766167284387709</v>
+        <v>0.0002420245756769333</v>
       </c>
       <c r="T31">
-        <v>0.0003766167284387709</v>
+        <v>0.0002420245756769333</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>45.5337773717097</v>
+        <v>57.46446033333334</v>
       </c>
       <c r="H32">
-        <v>45.5337773717097</v>
+        <v>172.393381</v>
       </c>
       <c r="I32">
-        <v>0.3602464519192088</v>
+        <v>0.3716553242513339</v>
       </c>
       <c r="J32">
-        <v>0.3602464519192088</v>
+        <v>0.3716553242513339</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.679685318926184</v>
+        <v>0.8672823333333334</v>
       </c>
       <c r="N32">
-        <v>0.679685318926184</v>
+        <v>2.601847</v>
       </c>
       <c r="O32">
-        <v>0.02713179863505067</v>
+        <v>0.02330657204704962</v>
       </c>
       <c r="P32">
-        <v>0.02713179863505067</v>
+        <v>0.02330657204704962</v>
       </c>
       <c r="Q32">
-        <v>30.94863999480437</v>
+        <v>49.83791124163412</v>
       </c>
       <c r="R32">
-        <v>30.94863999480437</v>
+        <v>448.5412011747071</v>
       </c>
       <c r="S32">
-        <v>0.009774134192463438</v>
+        <v>0.008662011591333301</v>
       </c>
       <c r="T32">
-        <v>0.009774134192463438</v>
+        <v>0.008662011591333301</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>45.5337773717097</v>
+        <v>57.46446033333334</v>
       </c>
       <c r="H33">
-        <v>45.5337773717097</v>
+        <v>172.393381</v>
       </c>
       <c r="I33">
-        <v>0.3602464519192088</v>
+        <v>0.3716553242513339</v>
       </c>
       <c r="J33">
-        <v>0.3602464519192088</v>
+        <v>0.3716553242513339</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>1.18365333282934</v>
+        <v>1.185693666666667</v>
       </c>
       <c r="N33">
-        <v>1.18365333282934</v>
+        <v>3.557081</v>
       </c>
       <c r="O33">
-        <v>0.04724928284572823</v>
+        <v>0.03186327428311169</v>
       </c>
       <c r="P33">
-        <v>0.04724928284572823</v>
+        <v>0.03186327428311169</v>
       </c>
       <c r="Q33">
-        <v>53.89620734233336</v>
+        <v>68.13524667565122</v>
       </c>
       <c r="R33">
-        <v>53.89620734233336</v>
+        <v>613.217220080861</v>
       </c>
       <c r="S33">
-        <v>0.01702138650090073</v>
+        <v>0.01184215553539906</v>
       </c>
       <c r="T33">
-        <v>0.01702138650090073</v>
+        <v>0.01184215553539906</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>45.5337773717097</v>
+        <v>57.46446033333334</v>
       </c>
       <c r="H34">
-        <v>45.5337773717097</v>
+        <v>172.393381</v>
       </c>
       <c r="I34">
-        <v>0.3602464519192088</v>
+        <v>0.3716553242513339</v>
       </c>
       <c r="J34">
-        <v>0.3602464519192088</v>
+        <v>0.3716553242513339</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>6.61944302727373</v>
+        <v>16.21723233333333</v>
       </c>
       <c r="N34">
-        <v>6.61944302727373</v>
+        <v>48.651697</v>
       </c>
       <c r="O34">
-        <v>0.264236096162739</v>
+        <v>0.4358074403843607</v>
       </c>
       <c r="P34">
-        <v>0.264236096162739</v>
+        <v>0.4358074403843607</v>
       </c>
       <c r="Q34">
-        <v>301.4082451285981</v>
+        <v>931.914504135284</v>
       </c>
       <c r="R34">
-        <v>301.4082451285981</v>
+        <v>8387.230537217558</v>
       </c>
       <c r="S34">
-        <v>0.09519011611160959</v>
+        <v>0.1619701555671934</v>
       </c>
       <c r="T34">
-        <v>0.09519011611160959</v>
+        <v>0.1619701555671934</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>45.5337773717097</v>
+        <v>57.46446033333334</v>
       </c>
       <c r="H35">
-        <v>45.5337773717097</v>
+        <v>172.393381</v>
       </c>
       <c r="I35">
-        <v>0.3602464519192088</v>
+        <v>0.3716553242513339</v>
       </c>
       <c r="J35">
-        <v>0.3602464519192088</v>
+        <v>0.3716553242513339</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>8.99023059359207</v>
+        <v>11.00545633333333</v>
       </c>
       <c r="N35">
-        <v>8.99023059359207</v>
+        <v>33.016369</v>
       </c>
       <c r="O35">
-        <v>0.3588736130616685</v>
+        <v>0.2957508196409995</v>
       </c>
       <c r="P35">
-        <v>0.3588736130616685</v>
+        <v>0.2957508196409995</v>
       </c>
       <c r="Q35">
-        <v>409.3591583689548</v>
+        <v>632.4226089170654</v>
       </c>
       <c r="R35">
-        <v>409.3591583689548</v>
+        <v>5691.803480253589</v>
       </c>
       <c r="S35">
-        <v>0.1292829457928931</v>
+        <v>0.1099173667712734</v>
       </c>
       <c r="T35">
-        <v>0.1292829457928931</v>
+        <v>0.1099173667712734</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>45.5337773717097</v>
+        <v>57.46446033333334</v>
       </c>
       <c r="H36">
-        <v>45.5337773717097</v>
+        <v>172.393381</v>
       </c>
       <c r="I36">
-        <v>0.3602464519192088</v>
+        <v>0.3716553242513339</v>
       </c>
       <c r="J36">
-        <v>0.3602464519192088</v>
+        <v>0.3716553242513339</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>7.09530791525976</v>
+        <v>7.413711999999999</v>
       </c>
       <c r="N36">
-        <v>7.09530791525976</v>
+        <v>22.241136</v>
       </c>
       <c r="O36">
-        <v>0.2832317548283194</v>
+        <v>0.1992294852818897</v>
       </c>
       <c r="P36">
-        <v>0.2832317548283194</v>
+        <v>0.1992294852818897</v>
       </c>
       <c r="Q36">
-        <v>323.0761709971675</v>
+        <v>426.0249591467573</v>
       </c>
       <c r="R36">
-        <v>323.0761709971675</v>
+        <v>3834.224632320816</v>
       </c>
       <c r="S36">
-        <v>0.1020332347477533</v>
+        <v>0.07404469895286708</v>
       </c>
       <c r="T36">
-        <v>0.1020332347477533</v>
+        <v>0.07404469895286707</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>45.5337773717097</v>
+        <v>57.46446033333334</v>
       </c>
       <c r="H37">
-        <v>45.5337773717097</v>
+        <v>172.393381</v>
       </c>
       <c r="I37">
-        <v>0.3602464519192088</v>
+        <v>0.3716553242513339</v>
       </c>
       <c r="J37">
-        <v>0.3602464519192088</v>
+        <v>0.3716553242513339</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.482924223468814</v>
+        <v>0.522545</v>
       </c>
       <c r="N37">
-        <v>0.482924223468814</v>
+        <v>1.567635</v>
       </c>
       <c r="O37">
-        <v>0.01927745446649416</v>
+        <v>0.01404240836258882</v>
       </c>
       <c r="P37">
-        <v>0.01927745446649416</v>
+        <v>0.01404240836258882</v>
       </c>
       <c r="Q37">
-        <v>21.98936407883476</v>
+        <v>30.02776642488167</v>
       </c>
       <c r="R37">
-        <v>21.98936407883476</v>
+        <v>270.249897823935</v>
       </c>
       <c r="S37">
-        <v>0.006944634573588624</v>
+        <v>0.00521893583326759</v>
       </c>
       <c r="T37">
-        <v>0.006944634573588624</v>
+        <v>0.00521893583326759</v>
       </c>
     </row>
   </sheetData>
